--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vegfc-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vegfc-Nrp2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.425865000000001</v>
+        <v>2.454345666666666</v>
       </c>
       <c r="H2">
-        <v>13.277595</v>
+        <v>7.363036999999999</v>
       </c>
       <c r="I2">
-        <v>0.4619841037548157</v>
+        <v>0.2857469401257222</v>
       </c>
       <c r="J2">
-        <v>0.4696223785602887</v>
+        <v>0.3027613480760606</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.13164066666667</v>
+        <v>36.48539666666667</v>
       </c>
       <c r="N2">
-        <v>132.394922</v>
+        <v>109.45619</v>
       </c>
       <c r="O2">
-        <v>0.4415399811720331</v>
+        <v>0.4260639713374229</v>
       </c>
       <c r="P2">
-        <v>0.4562856844211927</v>
+        <v>0.4324607845540777</v>
       </c>
       <c r="Q2">
-        <v>195.3206838191767</v>
+        <v>89.54777520544776</v>
       </c>
       <c r="R2">
-        <v>1757.88615437259</v>
+        <v>805.92997684903</v>
       </c>
       <c r="S2">
-        <v>0.2039844524736799</v>
+        <v>0.121746476107482</v>
       </c>
       <c r="T2">
-        <v>0.2142819684208898</v>
+        <v>0.1309324101216233</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.425865000000001</v>
+        <v>2.454345666666666</v>
       </c>
       <c r="H3">
-        <v>13.277595</v>
+        <v>7.363036999999999</v>
       </c>
       <c r="I3">
-        <v>0.4619841037548157</v>
+        <v>0.2857469401257222</v>
       </c>
       <c r="J3">
-        <v>0.4696223785602887</v>
+        <v>0.3027613480760606</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>44.79778</v>
       </c>
       <c r="O3">
-        <v>0.1494015830739255</v>
+        <v>0.1743777127077069</v>
       </c>
       <c r="P3">
-        <v>0.1543910098595022</v>
+        <v>0.1769957741547643</v>
       </c>
       <c r="Q3">
-        <v>66.08964219323336</v>
+        <v>36.64974573976222</v>
       </c>
       <c r="R3">
-        <v>594.8067797391001</v>
+        <v>329.84771165786</v>
       </c>
       <c r="S3">
-        <v>0.06902115645595812</v>
+        <v>0.04982789783234949</v>
       </c>
       <c r="T3">
-        <v>0.0725054732785444</v>
+        <v>0.05358747918686241</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.425865000000001</v>
+        <v>2.454345666666666</v>
       </c>
       <c r="H4">
-        <v>13.277595</v>
+        <v>7.363036999999999</v>
       </c>
       <c r="I4">
-        <v>0.4619841037548157</v>
+        <v>0.2857469401257222</v>
       </c>
       <c r="J4">
-        <v>0.4696223785602887</v>
+        <v>0.3027613480760606</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.61024133333333</v>
+        <v>9.680823666666667</v>
       </c>
       <c r="N4">
-        <v>40.830724</v>
+        <v>29.042471</v>
       </c>
       <c r="O4">
-        <v>0.1361713639304118</v>
+        <v>0.1130493445068016</v>
       </c>
       <c r="P4">
-        <v>0.1407189532975654</v>
+        <v>0.1147466378470605</v>
       </c>
       <c r="Q4">
-        <v>60.23709075875334</v>
+        <v>23.76008761604744</v>
       </c>
       <c r="R4">
-        <v>542.13381682878</v>
+        <v>213.840788544427</v>
       </c>
       <c r="S4">
-        <v>0.06290900552246212</v>
+        <v>0.03230350427603718</v>
       </c>
       <c r="T4">
-        <v>0.06608476955611686</v>
+        <v>0.03474084676177156</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.425865000000001</v>
+        <v>2.454345666666666</v>
       </c>
       <c r="H5">
-        <v>13.277595</v>
+        <v>7.363036999999999</v>
       </c>
       <c r="I5">
-        <v>0.4619841037548157</v>
+        <v>0.2857469401257222</v>
       </c>
       <c r="J5">
-        <v>0.4696223785602887</v>
+        <v>0.3027613480760606</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.690137500000001</v>
+        <v>3.79999</v>
       </c>
       <c r="N5">
-        <v>19.380275</v>
+        <v>7.59998</v>
       </c>
       <c r="O5">
-        <v>0.09695046603005844</v>
+        <v>0.04437498227672168</v>
       </c>
       <c r="P5">
-        <v>0.06679215417828435</v>
+        <v>0.0300274777826206</v>
       </c>
       <c r="Q5">
-        <v>42.88724040643751</v>
+        <v>9.326488989876665</v>
       </c>
       <c r="R5">
-        <v>257.323442438625</v>
+        <v>55.95893393926</v>
       </c>
       <c r="S5">
-        <v>0.04478957415750826</v>
+        <v>0.01268001540370637</v>
       </c>
       <c r="T5">
-        <v>0.03136709031437142</v>
+        <v>0.009091159652790172</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.425865000000001</v>
+        <v>2.454345666666666</v>
       </c>
       <c r="H6">
-        <v>13.277595</v>
+        <v>7.363036999999999</v>
       </c>
       <c r="I6">
-        <v>0.4619841037548157</v>
+        <v>0.2857469401257222</v>
       </c>
       <c r="J6">
-        <v>0.4696223785602887</v>
+        <v>0.3027613480760606</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.584752</v>
+        <v>20.734808</v>
       </c>
       <c r="N6">
-        <v>52.754256</v>
+        <v>62.204424</v>
       </c>
       <c r="O6">
-        <v>0.1759366057935712</v>
+        <v>0.242133989171347</v>
       </c>
       <c r="P6">
-        <v>0.1818121982434553</v>
+        <v>0.245769325661477</v>
       </c>
       <c r="Q6">
-        <v>77.82773841048001</v>
+        <v>50.89038616396533</v>
       </c>
       <c r="R6">
-        <v>700.4496456943201</v>
+        <v>458.013475475688</v>
       </c>
       <c r="S6">
-        <v>0.08127991514520733</v>
+        <v>0.06918904650614716</v>
       </c>
       <c r="T6">
-        <v>0.08538307699036625</v>
+        <v>0.07440945235301312</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.686805</v>
+        <v>4.686805000000001</v>
       </c>
       <c r="H7">
         <v>14.060415</v>
       </c>
       <c r="I7">
-        <v>0.4892217470254037</v>
+        <v>0.5456607868665887</v>
       </c>
       <c r="J7">
-        <v>0.4973103589802793</v>
+        <v>0.5781514068052169</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>44.13164066666667</v>
+        <v>36.48539666666667</v>
       </c>
       <c r="N7">
-        <v>132.394922</v>
+        <v>109.45619</v>
       </c>
       <c r="O7">
-        <v>0.4415399811720331</v>
+        <v>0.4260639713374229</v>
       </c>
       <c r="P7">
-        <v>0.4562856844211927</v>
+        <v>0.4324607845540777</v>
       </c>
       <c r="Q7">
-        <v>206.8363941347367</v>
+        <v>170.9999395243167</v>
       </c>
       <c r="R7">
-        <v>1861.52754721263</v>
+        <v>1538.99945571885</v>
       </c>
       <c r="S7">
-        <v>0.2160109609705459</v>
+        <v>0.2324864018554819</v>
       </c>
       <c r="T7">
-        <v>0.2269155975170658</v>
+        <v>0.2500278109780278</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.686805</v>
+        <v>4.686805000000001</v>
       </c>
       <c r="H8">
         <v>14.060415</v>
       </c>
       <c r="I8">
-        <v>0.4892217470254037</v>
+        <v>0.5456607868665887</v>
       </c>
       <c r="J8">
-        <v>0.4973103589802793</v>
+        <v>0.5781514068052169</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>44.79778</v>
       </c>
       <c r="O8">
-        <v>0.1494015830739255</v>
+        <v>0.1743777127077069</v>
       </c>
       <c r="P8">
-        <v>0.1543910098595022</v>
+        <v>0.1769957741547643</v>
       </c>
       <c r="Q8">
-        <v>69.98615309763333</v>
+        <v>69.98615309763335</v>
       </c>
       <c r="R8">
-        <v>629.8753778787</v>
+        <v>629.8753778787001</v>
       </c>
       <c r="S8">
-        <v>0.07309050347978681</v>
+        <v>0.09515107992808326</v>
       </c>
       <c r="T8">
-        <v>0.07678024853655685</v>
+        <v>0.1023303558261554</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.686805</v>
+        <v>4.686805000000001</v>
       </c>
       <c r="H9">
         <v>14.060415</v>
       </c>
       <c r="I9">
-        <v>0.4892217470254037</v>
+        <v>0.5456607868665887</v>
       </c>
       <c r="J9">
-        <v>0.4973103589802793</v>
+        <v>0.5781514068052169</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.61024133333333</v>
+        <v>9.680823666666667</v>
       </c>
       <c r="N9">
-        <v>40.830724</v>
+        <v>29.042471</v>
       </c>
       <c r="O9">
-        <v>0.1361713639304118</v>
+        <v>0.1130493445068016</v>
       </c>
       <c r="P9">
-        <v>0.1407189532975654</v>
+        <v>0.1147466378470605</v>
       </c>
       <c r="Q9">
-        <v>63.78854713227333</v>
+        <v>45.37213276505167</v>
       </c>
       <c r="R9">
-        <v>574.09692419046</v>
+        <v>408.349194885465</v>
       </c>
       <c r="S9">
-        <v>0.06661799255686809</v>
+        <v>0.06168659427833344</v>
       </c>
       <c r="T9">
-        <v>0.06998099317974141</v>
+        <v>0.06634093009744679</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.686805</v>
+        <v>4.686805000000001</v>
       </c>
       <c r="H10">
         <v>14.060415</v>
       </c>
       <c r="I10">
-        <v>0.4892217470254037</v>
+        <v>0.5456607868665887</v>
       </c>
       <c r="J10">
-        <v>0.4973103589802793</v>
+        <v>0.5781514068052169</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.690137500000001</v>
+        <v>3.79999</v>
       </c>
       <c r="N10">
-        <v>19.380275</v>
+        <v>7.59998</v>
       </c>
       <c r="O10">
-        <v>0.09695046603005844</v>
+        <v>0.04437498227672168</v>
       </c>
       <c r="P10">
-        <v>0.06679215417828435</v>
+        <v>0.0300274777826206</v>
       </c>
       <c r="Q10">
-        <v>45.4157848856875</v>
+        <v>17.80981213195</v>
       </c>
       <c r="R10">
-        <v>272.494709314125</v>
+        <v>106.8588727917</v>
       </c>
       <c r="S10">
-        <v>0.04743027636615225</v>
+        <v>0.02421368774630688</v>
       </c>
       <c r="T10">
-        <v>0.03321643017146875</v>
+        <v>0.0173604285228345</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.686805</v>
+        <v>4.686805000000001</v>
       </c>
       <c r="H11">
         <v>14.060415</v>
       </c>
       <c r="I11">
-        <v>0.4892217470254037</v>
+        <v>0.5456607868665887</v>
       </c>
       <c r="J11">
-        <v>0.4973103589802793</v>
+        <v>0.5781514068052169</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.584752</v>
+        <v>20.734808</v>
       </c>
       <c r="N11">
-        <v>52.754256</v>
+        <v>62.204424</v>
       </c>
       <c r="O11">
-        <v>0.1759366057935712</v>
+        <v>0.242133989171347</v>
       </c>
       <c r="P11">
-        <v>0.1818121982434553</v>
+        <v>0.245769325661477</v>
       </c>
       <c r="Q11">
-        <v>82.41630359735998</v>
+        <v>97.18000180844001</v>
       </c>
       <c r="R11">
-        <v>741.7467323762399</v>
+        <v>874.6200162759601</v>
       </c>
       <c r="S11">
-        <v>0.08607201365205068</v>
+        <v>0.1321230230583833</v>
       </c>
       <c r="T11">
-        <v>0.09041708957544647</v>
+        <v>0.1420918813807524</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.467454</v>
+        <v>1.4480775</v>
       </c>
       <c r="H12">
-        <v>0.9349080000000001</v>
+        <v>2.896155</v>
       </c>
       <c r="I12">
-        <v>0.04879414921978045</v>
+        <v>0.1685922730076891</v>
       </c>
       <c r="J12">
-        <v>0.03306726245943203</v>
+        <v>0.1190872451187225</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>44.13164066666667</v>
+        <v>36.48539666666667</v>
       </c>
       <c r="N12">
-        <v>132.394922</v>
+        <v>109.45619</v>
       </c>
       <c r="O12">
-        <v>0.4415399811720331</v>
+        <v>0.4260639713374229</v>
       </c>
       <c r="P12">
-        <v>0.4562856844211927</v>
+        <v>0.4324607845540777</v>
       </c>
       <c r="Q12">
-        <v>20.629511956196</v>
+        <v>52.833681991575</v>
       </c>
       <c r="R12">
-        <v>123.777071737176</v>
+        <v>317.00209194945</v>
       </c>
       <c r="S12">
-        <v>0.02154456772780724</v>
+        <v>0.07183109337445903</v>
       </c>
       <c r="T12">
-        <v>0.01508811848323715</v>
+        <v>0.05150056345442649</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.467454</v>
+        <v>1.4480775</v>
       </c>
       <c r="H13">
-        <v>0.9349080000000001</v>
+        <v>2.896155</v>
       </c>
       <c r="I13">
-        <v>0.04879414921978045</v>
+        <v>0.1685922730076891</v>
       </c>
       <c r="J13">
-        <v>0.03306726245943203</v>
+        <v>0.1190872451187225</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>44.79778</v>
       </c>
       <c r="O13">
-        <v>0.1494015830739255</v>
+        <v>0.1743777127077069</v>
       </c>
       <c r="P13">
-        <v>0.1543910098595022</v>
+        <v>0.1769957741547643</v>
       </c>
       <c r="Q13">
-        <v>6.980300484040002</v>
+        <v>21.62355242265</v>
       </c>
       <c r="R13">
-        <v>41.88180290424</v>
+        <v>129.7413145359</v>
       </c>
       <c r="S13">
-        <v>0.007289923138180545</v>
+        <v>0.0293987349472741</v>
       </c>
       <c r="T13">
-        <v>0.005105288044400916</v>
+        <v>0.02107793914174647</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.467454</v>
+        <v>1.4480775</v>
       </c>
       <c r="H14">
-        <v>0.9349080000000001</v>
+        <v>2.896155</v>
       </c>
       <c r="I14">
-        <v>0.04879414921978045</v>
+        <v>0.1685922730076891</v>
       </c>
       <c r="J14">
-        <v>0.03306726245943203</v>
+        <v>0.1190872451187225</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.61024133333333</v>
+        <v>9.680823666666667</v>
       </c>
       <c r="N14">
-        <v>40.830724</v>
+        <v>29.042471</v>
       </c>
       <c r="O14">
-        <v>0.1361713639304118</v>
+        <v>0.1130493445068016</v>
       </c>
       <c r="P14">
-        <v>0.1407189532975654</v>
+        <v>0.1147466378470605</v>
       </c>
       <c r="Q14">
-        <v>6.362161752232001</v>
+        <v>14.0185829331675</v>
       </c>
       <c r="R14">
-        <v>38.172970513392</v>
+        <v>84.11149759900499</v>
       </c>
       <c r="S14">
-        <v>0.006644365851081541</v>
+        <v>0.019059245952431</v>
       </c>
       <c r="T14">
-        <v>0.004653190561707154</v>
+        <v>0.01366486098784218</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.467454</v>
+        <v>1.4480775</v>
       </c>
       <c r="H15">
-        <v>0.9349080000000001</v>
+        <v>2.896155</v>
       </c>
       <c r="I15">
-        <v>0.04879414921978045</v>
+        <v>0.1685922730076891</v>
       </c>
       <c r="J15">
-        <v>0.03306726245943203</v>
+        <v>0.1190872451187225</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.690137500000001</v>
+        <v>3.79999</v>
       </c>
       <c r="N15">
-        <v>19.380275</v>
+        <v>7.59998</v>
       </c>
       <c r="O15">
-        <v>0.09695046603005844</v>
+        <v>0.04437498227672168</v>
       </c>
       <c r="P15">
-        <v>0.06679215417828435</v>
+        <v>0.0300274777826206</v>
       </c>
       <c r="Q15">
-        <v>4.529693534925</v>
+        <v>5.502680019225</v>
       </c>
       <c r="R15">
-        <v>18.1187741397</v>
+        <v>22.0107200769</v>
       </c>
       <c r="S15">
-        <v>0.004730615506397928</v>
+        <v>0.007481279126708429</v>
       </c>
       <c r="T15">
-        <v>0.002208633692444178</v>
+        <v>0.003575889606995933</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.467454</v>
+        <v>1.4480775</v>
       </c>
       <c r="H16">
-        <v>0.9349080000000001</v>
+        <v>2.896155</v>
       </c>
       <c r="I16">
-        <v>0.04879414921978045</v>
+        <v>0.1685922730076891</v>
       </c>
       <c r="J16">
-        <v>0.03306726245943203</v>
+        <v>0.1190872451187225</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.584752</v>
+        <v>20.734808</v>
       </c>
       <c r="N16">
-        <v>52.754256</v>
+        <v>62.204424</v>
       </c>
       <c r="O16">
-        <v>0.1759366057935712</v>
+        <v>0.242133989171347</v>
       </c>
       <c r="P16">
-        <v>0.1818121982434553</v>
+        <v>0.245769325661477</v>
       </c>
       <c r="Q16">
-        <v>8.220062661407999</v>
+        <v>30.02560893162</v>
       </c>
       <c r="R16">
-        <v>49.320375968448</v>
+        <v>180.15365358972</v>
       </c>
       <c r="S16">
-        <v>0.008584676996313205</v>
+        <v>0.04082191960681658</v>
       </c>
       <c r="T16">
-        <v>0.006012031677642624</v>
+        <v>0.02926799192771144</v>
       </c>
     </row>
   </sheetData>
